--- a/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/graph/SIMPLE_1000times.xlsx
+++ b/calculation-engine/engine-tests/engine-it-performance/src/test/resources/datamodel/graph/SIMPLE_1000times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1005" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="1455" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,16 +352,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A967" workbookViewId="0">
-      <selection activeCell="J985" sqref="J985"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>B1*C1+SUM(D1,E1,F1)/G1-H1</f>
-        <v>2</v>
+        <f>B1*C1+SUM(D1,E1,F1)/G1-H1+526</f>
+        <v>528</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -387,8 +385,8 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f t="shared" ref="A2:A65" si="0">B2*C2+SUM(D2,E2,F2)/G2-H2</f>
-        <v>2</v>
+        <f t="shared" ref="A2:A65" si="0">B2*C2+SUM(D2,E2,F2)/G2-H2+526</f>
+        <v>528</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -415,7 +413,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -442,7 +440,7 @@
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -469,7 +467,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -496,7 +494,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -523,7 +521,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -550,7 +548,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -577,7 +575,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -604,7 +602,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -631,7 +629,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -658,7 +656,7 @@
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -685,7 +683,7 @@
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -712,7 +710,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -739,7 +737,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -766,7 +764,7 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -793,7 +791,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -820,7 +818,7 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -847,7 +845,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -874,7 +872,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -901,7 +899,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -928,7 +926,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -955,7 +953,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -982,7 +980,7 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1009,7 +1007,7 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1036,7 +1034,7 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1063,7 +1061,7 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1090,7 +1088,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1117,7 +1115,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1144,7 +1142,7 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1171,7 +1169,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1198,7 +1196,7 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1225,7 +1223,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1252,7 +1250,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1279,7 +1277,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1306,7 +1304,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1333,7 +1331,7 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1360,7 +1358,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1387,7 +1385,7 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -1414,7 +1412,7 @@
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1441,7 +1439,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1468,7 +1466,7 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1495,7 +1493,7 @@
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1522,7 +1520,7 @@
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1549,7 +1547,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1576,7 +1574,7 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1603,7 +1601,7 @@
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1630,7 +1628,7 @@
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1657,7 +1655,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1684,7 +1682,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1711,7 +1709,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1738,7 +1736,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -1765,7 +1763,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1792,7 +1790,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1819,7 +1817,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -1846,7 +1844,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -1873,7 +1871,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1900,7 +1898,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -1927,7 +1925,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1954,7 +1952,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1981,7 +1979,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -2008,7 +2006,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2035,7 +2033,7 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -2062,7 +2060,7 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -2089,7 +2087,7 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -2115,8 +2113,8 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f t="shared" ref="A66:A129" si="1">B66*C66+SUM(D66,E66,F66)/G66-H66</f>
-        <v>2</v>
+        <f t="shared" ref="A66:A129" si="1">B66*C66+SUM(D66,E66,F66)/G66-H66+526</f>
+        <v>528</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -2143,7 +2141,7 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2170,7 +2168,7 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2197,7 +2195,7 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -2224,7 +2222,7 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -2251,7 +2249,7 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2278,7 +2276,7 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -2305,7 +2303,7 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -2332,7 +2330,7 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2359,7 +2357,7 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -2386,7 +2384,7 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -2413,7 +2411,7 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -2440,7 +2438,7 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2467,7 +2465,7 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -2494,7 +2492,7 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -2521,7 +2519,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2548,7 +2546,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2575,7 +2573,7 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -2602,7 +2600,7 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2629,7 +2627,7 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2656,7 +2654,7 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2683,7 +2681,7 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -2710,7 +2708,7 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2737,7 +2735,7 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2764,7 +2762,7 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2791,7 +2789,7 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -2818,7 +2816,7 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2845,7 +2843,7 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -2872,7 +2870,7 @@
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -2899,7 +2897,7 @@
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2926,7 +2924,7 @@
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -2953,7 +2951,7 @@
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -2980,7 +2978,7 @@
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3007,7 +3005,7 @@
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -3034,7 +3032,7 @@
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -3061,7 +3059,7 @@
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -3088,7 +3086,7 @@
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -3115,7 +3113,7 @@
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -3142,7 +3140,7 @@
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3169,7 +3167,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -3196,7 +3194,7 @@
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -3223,7 +3221,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -3250,7 +3248,7 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -3277,7 +3275,7 @@
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -3304,7 +3302,7 @@
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -3331,7 +3329,7 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -3358,7 +3356,7 @@
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -3385,7 +3383,7 @@
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -3412,7 +3410,7 @@
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -3439,7 +3437,7 @@
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -3466,7 +3464,7 @@
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -3493,7 +3491,7 @@
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -3520,7 +3518,7 @@
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -3547,7 +3545,7 @@
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3574,7 +3572,7 @@
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -3601,7 +3599,7 @@
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -3628,7 +3626,7 @@
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -3655,7 +3653,7 @@
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -3682,7 +3680,7 @@
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -3709,7 +3707,7 @@
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -3736,7 +3734,7 @@
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -3763,7 +3761,7 @@
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -3790,7 +3788,7 @@
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -3817,7 +3815,7 @@
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -3843,8 +3841,8 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f t="shared" ref="A130:A193" si="2">B130*C130+SUM(D130,E130,F130)/G130-H130</f>
-        <v>2</v>
+        <f t="shared" ref="A130:A193" si="2">B130*C130+SUM(D130,E130,F130)/G130-H130+526</f>
+        <v>528</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -3871,7 +3869,7 @@
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -3898,7 +3896,7 @@
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -3925,7 +3923,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3952,7 +3950,7 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -3979,7 +3977,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -4006,7 +4004,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -4033,7 +4031,7 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4060,7 +4058,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4087,7 +4085,7 @@
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -4114,7 +4112,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -4141,7 +4139,7 @@
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -4168,7 +4166,7 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -4195,7 +4193,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -4222,7 +4220,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -4249,7 +4247,7 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -4276,7 +4274,7 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -4303,7 +4301,7 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -4330,7 +4328,7 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -4357,7 +4355,7 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -4384,7 +4382,7 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -4411,7 +4409,7 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -4438,7 +4436,7 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -4465,7 +4463,7 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -4492,7 +4490,7 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -4519,7 +4517,7 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -4546,7 +4544,7 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -4573,7 +4571,7 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -4600,7 +4598,7 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -4627,7 +4625,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -4654,7 +4652,7 @@
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -4681,7 +4679,7 @@
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -4708,7 +4706,7 @@
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -4735,7 +4733,7 @@
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -4762,7 +4760,7 @@
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -4789,7 +4787,7 @@
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -4816,7 +4814,7 @@
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -4843,7 +4841,7 @@
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -4870,7 +4868,7 @@
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -4897,7 +4895,7 @@
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4924,7 +4922,7 @@
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -4951,7 +4949,7 @@
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -4978,7 +4976,7 @@
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5005,7 +5003,7 @@
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5032,7 +5030,7 @@
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5059,7 +5057,7 @@
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5086,7 +5084,7 @@
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5113,7 +5111,7 @@
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5140,7 +5138,7 @@
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5167,7 +5165,7 @@
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5194,7 +5192,7 @@
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5221,7 +5219,7 @@
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5248,7 +5246,7 @@
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5275,7 +5273,7 @@
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5302,7 +5300,7 @@
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -5329,7 +5327,7 @@
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5356,7 +5354,7 @@
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5383,7 +5381,7 @@
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5410,7 +5408,7 @@
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -5437,7 +5435,7 @@
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5464,7 +5462,7 @@
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -5491,7 +5489,7 @@
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5518,7 +5516,7 @@
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5545,7 +5543,7 @@
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5571,8 +5569,8 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" ref="A194:A257" si="3">B194*C194+SUM(D194,E194,F194)/G194-H194</f>
-        <v>2</v>
+        <f t="shared" ref="A194:A257" si="3">B194*C194+SUM(D194,E194,F194)/G194-H194+526</f>
+        <v>528</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5599,7 +5597,7 @@
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5626,7 +5624,7 @@
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5653,7 +5651,7 @@
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5680,7 +5678,7 @@
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5707,7 +5705,7 @@
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5734,7 +5732,7 @@
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -5761,7 +5759,7 @@
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5788,7 +5786,7 @@
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5815,7 +5813,7 @@
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5842,7 +5840,7 @@
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -5869,7 +5867,7 @@
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5896,7 +5894,7 @@
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5923,7 +5921,7 @@
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5950,7 +5948,7 @@
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5977,7 +5975,7 @@
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -6004,7 +6002,7 @@
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -6031,7 +6029,7 @@
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -6058,7 +6056,7 @@
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -6085,7 +6083,7 @@
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -6112,7 +6110,7 @@
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -6139,7 +6137,7 @@
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -6166,7 +6164,7 @@
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -6193,7 +6191,7 @@
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -6220,7 +6218,7 @@
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -6247,7 +6245,7 @@
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -6274,7 +6272,7 @@
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -6301,7 +6299,7 @@
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -6328,7 +6326,7 @@
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -6355,7 +6353,7 @@
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -6382,7 +6380,7 @@
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -6409,7 +6407,7 @@
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -6436,7 +6434,7 @@
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -6463,7 +6461,7 @@
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -6490,7 +6488,7 @@
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -6517,7 +6515,7 @@
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -6544,7 +6542,7 @@
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -6571,7 +6569,7 @@
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -6598,7 +6596,7 @@
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -6625,7 +6623,7 @@
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -6652,7 +6650,7 @@
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -6679,7 +6677,7 @@
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -6706,7 +6704,7 @@
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -6733,7 +6731,7 @@
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -6760,7 +6758,7 @@
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -6787,7 +6785,7 @@
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B239">
         <v>1</v>
@@ -6814,7 +6812,7 @@
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -6841,7 +6839,7 @@
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -6868,7 +6866,7 @@
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -6895,7 +6893,7 @@
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -6922,7 +6920,7 @@
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -6949,7 +6947,7 @@
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -6976,7 +6974,7 @@
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -7003,7 +7001,7 @@
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -7030,7 +7028,7 @@
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -7057,7 +7055,7 @@
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -7084,7 +7082,7 @@
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -7111,7 +7109,7 @@
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -7138,7 +7136,7 @@
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -7165,7 +7163,7 @@
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -7192,7 +7190,7 @@
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -7219,7 +7217,7 @@
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -7246,7 +7244,7 @@
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -7273,7 +7271,7 @@
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B257">
         <v>1</v>
@@ -7299,8 +7297,8 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
-        <f t="shared" ref="A258:A321" si="4">B258*C258+SUM(D258,E258,F258)/G258-H258</f>
-        <v>2</v>
+        <f t="shared" ref="A258:A321" si="4">B258*C258+SUM(D258,E258,F258)/G258-H258+526</f>
+        <v>528</v>
       </c>
       <c r="B258">
         <v>1</v>
@@ -7327,7 +7325,7 @@
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -7354,7 +7352,7 @@
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -7381,7 +7379,7 @@
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B261">
         <v>1</v>
@@ -7408,7 +7406,7 @@
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B262">
         <v>1</v>
@@ -7435,7 +7433,7 @@
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B263">
         <v>1</v>
@@ -7462,7 +7460,7 @@
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -7489,7 +7487,7 @@
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -7516,7 +7514,7 @@
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -7543,7 +7541,7 @@
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -7570,7 +7568,7 @@
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -7597,7 +7595,7 @@
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -7624,7 +7622,7 @@
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -7651,7 +7649,7 @@
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -7678,7 +7676,7 @@
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -7705,7 +7703,7 @@
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -7732,7 +7730,7 @@
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -7759,7 +7757,7 @@
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -7786,7 +7784,7 @@
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -7813,7 +7811,7 @@
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -7840,7 +7838,7 @@
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -7867,7 +7865,7 @@
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -7894,7 +7892,7 @@
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -7921,7 +7919,7 @@
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -7948,7 +7946,7 @@
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -7975,7 +7973,7 @@
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -8002,7 +8000,7 @@
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -8029,7 +8027,7 @@
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -8056,7 +8054,7 @@
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -8083,7 +8081,7 @@
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -8110,7 +8108,7 @@
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -8137,7 +8135,7 @@
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -8164,7 +8162,7 @@
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -8191,7 +8189,7 @@
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -8218,7 +8216,7 @@
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -8245,7 +8243,7 @@
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -8272,7 +8270,7 @@
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -8299,7 +8297,7 @@
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -8326,7 +8324,7 @@
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -8353,7 +8351,7 @@
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -8380,7 +8378,7 @@
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -8407,7 +8405,7 @@
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -8434,7 +8432,7 @@
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -8461,7 +8459,7 @@
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -8488,7 +8486,7 @@
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -8515,7 +8513,7 @@
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B303">
         <v>1</v>
@@ -8542,7 +8540,7 @@
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -8569,7 +8567,7 @@
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B305">
         <v>1</v>
@@ -8596,7 +8594,7 @@
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B306">
         <v>1</v>
@@ -8623,7 +8621,7 @@
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -8650,7 +8648,7 @@
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B308">
         <v>1</v>
@@ -8677,7 +8675,7 @@
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -8704,7 +8702,7 @@
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -8731,7 +8729,7 @@
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -8758,7 +8756,7 @@
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -8785,7 +8783,7 @@
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -8812,7 +8810,7 @@
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -8839,7 +8837,7 @@
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -8866,7 +8864,7 @@
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -8893,7 +8891,7 @@
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -8920,7 +8918,7 @@
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -8947,7 +8945,7 @@
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -8974,7 +8972,7 @@
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -9001,7 +8999,7 @@
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -9027,8 +9025,8 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
-        <f t="shared" ref="A322:A385" si="5">B322*C322+SUM(D322,E322,F322)/G322-H322</f>
-        <v>2</v>
+        <f t="shared" ref="A322:A385" si="5">B322*C322+SUM(D322,E322,F322)/G322-H322+526</f>
+        <v>528</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -9055,7 +9053,7 @@
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -9082,7 +9080,7 @@
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -9109,7 +9107,7 @@
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -9136,7 +9134,7 @@
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B326">
         <v>1</v>
@@ -9163,7 +9161,7 @@
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -9190,7 +9188,7 @@
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -9217,7 +9215,7 @@
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -9244,7 +9242,7 @@
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -9271,7 +9269,7 @@
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -9298,7 +9296,7 @@
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -9325,7 +9323,7 @@
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -9352,7 +9350,7 @@
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -9379,7 +9377,7 @@
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -9406,7 +9404,7 @@
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -9433,7 +9431,7 @@
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -9460,7 +9458,7 @@
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -9487,7 +9485,7 @@
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -9514,7 +9512,7 @@
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -9541,7 +9539,7 @@
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -9568,7 +9566,7 @@
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -9595,7 +9593,7 @@
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -9622,7 +9620,7 @@
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -9649,7 +9647,7 @@
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -9676,7 +9674,7 @@
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -9703,7 +9701,7 @@
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -9730,7 +9728,7 @@
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -9757,7 +9755,7 @@
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -9784,7 +9782,7 @@
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -9811,7 +9809,7 @@
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B351">
         <v>1</v>
@@ -9838,7 +9836,7 @@
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -9865,7 +9863,7 @@
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -9892,7 +9890,7 @@
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -9919,7 +9917,7 @@
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -9946,7 +9944,7 @@
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -9973,7 +9971,7 @@
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -10000,7 +9998,7 @@
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -10027,7 +10025,7 @@
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -10054,7 +10052,7 @@
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -10081,7 +10079,7 @@
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -10108,7 +10106,7 @@
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -10135,7 +10133,7 @@
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -10162,7 +10160,7 @@
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B364">
         <v>1</v>
@@ -10189,7 +10187,7 @@
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B365">
         <v>1</v>
@@ -10216,7 +10214,7 @@
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -10243,7 +10241,7 @@
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -10270,7 +10268,7 @@
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -10297,7 +10295,7 @@
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -10324,7 +10322,7 @@
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -10351,7 +10349,7 @@
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -10378,7 +10376,7 @@
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -10405,7 +10403,7 @@
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B373">
         <v>1</v>
@@ -10432,7 +10430,7 @@
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -10459,7 +10457,7 @@
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -10486,7 +10484,7 @@
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -10513,7 +10511,7 @@
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -10540,7 +10538,7 @@
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -10567,7 +10565,7 @@
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -10594,7 +10592,7 @@
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B380">
         <v>1</v>
@@ -10621,7 +10619,7 @@
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B381">
         <v>1</v>
@@ -10648,7 +10646,7 @@
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -10675,7 +10673,7 @@
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -10702,7 +10700,7 @@
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -10729,7 +10727,7 @@
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -10755,8 +10753,8 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386">
-        <f t="shared" ref="A386:A449" si="6">B386*C386+SUM(D386,E386,F386)/G386-H386</f>
-        <v>2</v>
+        <f t="shared" ref="A386:A449" si="6">B386*C386+SUM(D386,E386,F386)/G386-H386+526</f>
+        <v>528</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -10783,7 +10781,7 @@
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -10810,7 +10808,7 @@
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -10837,7 +10835,7 @@
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -10864,7 +10862,7 @@
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -10891,7 +10889,7 @@
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B391">
         <v>1</v>
@@ -10918,7 +10916,7 @@
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B392">
         <v>1</v>
@@ -10945,7 +10943,7 @@
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -10972,7 +10970,7 @@
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -10999,7 +10997,7 @@
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -11026,7 +11024,7 @@
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -11053,7 +11051,7 @@
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -11080,7 +11078,7 @@
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -11107,7 +11105,7 @@
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -11134,7 +11132,7 @@
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -11161,7 +11159,7 @@
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -11188,7 +11186,7 @@
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -11215,7 +11213,7 @@
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -11242,7 +11240,7 @@
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -11269,7 +11267,7 @@
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -11296,7 +11294,7 @@
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -11323,7 +11321,7 @@
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -11350,7 +11348,7 @@
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B408">
         <v>1</v>
@@ -11377,7 +11375,7 @@
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B409">
         <v>1</v>
@@ -11404,7 +11402,7 @@
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B410">
         <v>1</v>
@@ -11431,7 +11429,7 @@
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -11458,7 +11456,7 @@
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -11485,7 +11483,7 @@
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -11512,7 +11510,7 @@
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B414">
         <v>1</v>
@@ -11539,7 +11537,7 @@
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -11566,7 +11564,7 @@
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -11593,7 +11591,7 @@
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -11620,7 +11618,7 @@
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -11647,7 +11645,7 @@
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -11674,7 +11672,7 @@
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -11701,7 +11699,7 @@
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -11728,7 +11726,7 @@
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -11755,7 +11753,7 @@
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -11782,7 +11780,7 @@
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -11809,7 +11807,7 @@
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -11836,7 +11834,7 @@
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -11863,7 +11861,7 @@
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -11890,7 +11888,7 @@
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -11917,7 +11915,7 @@
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -11944,7 +11942,7 @@
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -11971,7 +11969,7 @@
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -11998,7 +11996,7 @@
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -12025,7 +12023,7 @@
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B433">
         <v>1</v>
@@ -12052,7 +12050,7 @@
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -12079,7 +12077,7 @@
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B435">
         <v>1</v>
@@ -12106,7 +12104,7 @@
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -12133,7 +12131,7 @@
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -12160,7 +12158,7 @@
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -12187,7 +12185,7 @@
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -12214,7 +12212,7 @@
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B440">
         <v>1</v>
@@ -12241,7 +12239,7 @@
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B441">
         <v>1</v>
@@ -12268,7 +12266,7 @@
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B442">
         <v>1</v>
@@ -12295,7 +12293,7 @@
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B443">
         <v>1</v>
@@ -12322,7 +12320,7 @@
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -12349,7 +12347,7 @@
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B445">
         <v>1</v>
@@ -12376,7 +12374,7 @@
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B446">
         <v>1</v>
@@ -12403,7 +12401,7 @@
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B447">
         <v>1</v>
@@ -12430,7 +12428,7 @@
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B448">
         <v>1</v>
@@ -12457,7 +12455,7 @@
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B449">
         <v>1</v>
@@ -12483,8 +12481,8 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
-        <f t="shared" ref="A450:A513" si="7">B450*C450+SUM(D450,E450,F450)/G450-H450</f>
-        <v>2</v>
+        <f t="shared" ref="A450:A513" si="7">B450*C450+SUM(D450,E450,F450)/G450-H450+526</f>
+        <v>528</v>
       </c>
       <c r="B450">
         <v>1</v>
@@ -12511,7 +12509,7 @@
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B451">
         <v>1</v>
@@ -12538,7 +12536,7 @@
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B452">
         <v>1</v>
@@ -12565,7 +12563,7 @@
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B453">
         <v>1</v>
@@ -12592,7 +12590,7 @@
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B454">
         <v>1</v>
@@ -12619,7 +12617,7 @@
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B455">
         <v>1</v>
@@ -12646,7 +12644,7 @@
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B456">
         <v>1</v>
@@ -12673,7 +12671,7 @@
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B457">
         <v>1</v>
@@ -12700,7 +12698,7 @@
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B458">
         <v>1</v>
@@ -12727,7 +12725,7 @@
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -12754,7 +12752,7 @@
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B460">
         <v>1</v>
@@ -12781,7 +12779,7 @@
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B461">
         <v>1</v>
@@ -12808,7 +12806,7 @@
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B462">
         <v>1</v>
@@ -12835,7 +12833,7 @@
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B463">
         <v>1</v>
@@ -12862,7 +12860,7 @@
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B464">
         <v>1</v>
@@ -12889,7 +12887,7 @@
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B465">
         <v>1</v>
@@ -12916,7 +12914,7 @@
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B466">
         <v>1</v>
@@ -12943,7 +12941,7 @@
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B467">
         <v>1</v>
@@ -12970,7 +12968,7 @@
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B468">
         <v>1</v>
@@ -12997,7 +12995,7 @@
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B469">
         <v>1</v>
@@ -13024,7 +13022,7 @@
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B470">
         <v>1</v>
@@ -13051,7 +13049,7 @@
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B471">
         <v>1</v>
@@ -13078,7 +13076,7 @@
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B472">
         <v>1</v>
@@ -13105,7 +13103,7 @@
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B473">
         <v>1</v>
@@ -13132,7 +13130,7 @@
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B474">
         <v>1</v>
@@ -13159,7 +13157,7 @@
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B475">
         <v>1</v>
@@ -13186,7 +13184,7 @@
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B476">
         <v>1</v>
@@ -13213,7 +13211,7 @@
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B477">
         <v>1</v>
@@ -13240,7 +13238,7 @@
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B478">
         <v>1</v>
@@ -13267,7 +13265,7 @@
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B479">
         <v>1</v>
@@ -13294,7 +13292,7 @@
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B480">
         <v>1</v>
@@ -13321,7 +13319,7 @@
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -13348,7 +13346,7 @@
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -13375,7 +13373,7 @@
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B483">
         <v>1</v>
@@ -13402,7 +13400,7 @@
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B484">
         <v>1</v>
@@ -13429,7 +13427,7 @@
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -13456,7 +13454,7 @@
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B486">
         <v>1</v>
@@ -13483,7 +13481,7 @@
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -13510,7 +13508,7 @@
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B488">
         <v>1</v>
@@ -13537,7 +13535,7 @@
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B489">
         <v>1</v>
@@ -13564,7 +13562,7 @@
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -13591,7 +13589,7 @@
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B491">
         <v>1</v>
@@ -13618,7 +13616,7 @@
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B492">
         <v>1</v>
@@ -13645,7 +13643,7 @@
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B493">
         <v>1</v>
@@ -13672,7 +13670,7 @@
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B494">
         <v>1</v>
@@ -13699,7 +13697,7 @@
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B495">
         <v>1</v>
@@ -13726,7 +13724,7 @@
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B496">
         <v>1</v>
@@ -13753,7 +13751,7 @@
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B497">
         <v>1</v>
@@ -13780,7 +13778,7 @@
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B498">
         <v>1</v>
@@ -13807,7 +13805,7 @@
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -13834,7 +13832,7 @@
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B500">
         <v>1</v>
@@ -13861,7 +13859,7 @@
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B501">
         <v>1</v>
@@ -13888,7 +13886,7 @@
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B502">
         <v>1</v>
@@ -13915,7 +13913,7 @@
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B503">
         <v>1</v>
@@ -13942,7 +13940,7 @@
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B504">
         <v>1</v>
@@ -13969,7 +13967,7 @@
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B505">
         <v>1</v>
@@ -13996,7 +13994,7 @@
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B506">
         <v>1</v>
@@ -14023,7 +14021,7 @@
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B507">
         <v>1</v>
@@ -14050,7 +14048,7 @@
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B508">
         <v>1</v>
@@ -14077,7 +14075,7 @@
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B509">
         <v>1</v>
@@ -14104,7 +14102,7 @@
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B510">
         <v>1</v>
@@ -14131,7 +14129,7 @@
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B511">
         <v>1</v>
@@ -14158,7 +14156,7 @@
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B512">
         <v>1</v>
@@ -14185,7 +14183,7 @@
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B513">
         <v>1</v>
@@ -14211,8 +14209,8 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
-        <f t="shared" ref="A514:A577" si="8">B514*C514+SUM(D514,E514,F514)/G514-H514</f>
-        <v>2</v>
+        <f t="shared" ref="A514:A577" si="8">B514*C514+SUM(D514,E514,F514)/G514-H514+526</f>
+        <v>528</v>
       </c>
       <c r="B514">
         <v>1</v>
@@ -14239,7 +14237,7 @@
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B515">
         <v>1</v>
@@ -14266,7 +14264,7 @@
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B516">
         <v>1</v>
@@ -14293,7 +14291,7 @@
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B517">
         <v>1</v>
@@ -14320,7 +14318,7 @@
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B518">
         <v>1</v>
@@ -14347,7 +14345,7 @@
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B519">
         <v>1</v>
@@ -14374,7 +14372,7 @@
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B520">
         <v>1</v>
@@ -14401,7 +14399,7 @@
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B521">
         <v>1</v>
@@ -14428,7 +14426,7 @@
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B522">
         <v>1</v>
@@ -14455,7 +14453,7 @@
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B523">
         <v>1</v>
@@ -14482,7 +14480,7 @@
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B524">
         <v>1</v>
@@ -14509,7 +14507,7 @@
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B525">
         <v>1</v>
@@ -14536,7 +14534,7 @@
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B526">
         <v>1</v>
@@ -14563,7 +14561,7 @@
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B527">
         <v>1</v>
@@ -14590,7 +14588,7 @@
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B528">
         <v>1</v>
@@ -14617,7 +14615,7 @@
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B529">
         <v>1</v>
@@ -14644,7 +14642,7 @@
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B530">
         <v>1</v>
@@ -14671,7 +14669,7 @@
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B531">
         <v>1</v>
@@ -14698,7 +14696,7 @@
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B532">
         <v>1</v>
@@ -14725,7 +14723,7 @@
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B533">
         <v>1</v>
@@ -14752,7 +14750,7 @@
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B534">
         <v>1</v>
@@ -14779,7 +14777,7 @@
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B535">
         <v>1</v>
@@ -14806,7 +14804,7 @@
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B536">
         <v>1</v>
@@ -14833,7 +14831,7 @@
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B537">
         <v>1</v>
@@ -14860,7 +14858,7 @@
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B538">
         <v>1</v>
@@ -14887,7 +14885,7 @@
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B539">
         <v>1</v>
@@ -14914,7 +14912,7 @@
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B540">
         <v>1</v>
@@ -14941,7 +14939,7 @@
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B541">
         <v>1</v>
@@ -14968,7 +14966,7 @@
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B542">
         <v>1</v>
@@ -14995,7 +14993,7 @@
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B543">
         <v>1</v>
@@ -15022,7 +15020,7 @@
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B544">
         <v>1</v>
@@ -15049,7 +15047,7 @@
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B545">
         <v>1</v>
@@ -15076,7 +15074,7 @@
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B546">
         <v>1</v>
@@ -15103,7 +15101,7 @@
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B547">
         <v>1</v>
@@ -15130,7 +15128,7 @@
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B548">
         <v>1</v>
@@ -15157,7 +15155,7 @@
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -15184,7 +15182,7 @@
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B550">
         <v>1</v>
@@ -15211,7 +15209,7 @@
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B551">
         <v>1</v>
@@ -15238,7 +15236,7 @@
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B552">
         <v>1</v>
@@ -15265,7 +15263,7 @@
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B553">
         <v>1</v>
@@ -15292,7 +15290,7 @@
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B554">
         <v>1</v>
@@ -15319,7 +15317,7 @@
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B555">
         <v>1</v>
@@ -15346,7 +15344,7 @@
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B556">
         <v>1</v>
@@ -15373,7 +15371,7 @@
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B557">
         <v>1</v>
@@ -15400,7 +15398,7 @@
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B558">
         <v>1</v>
@@ -15427,7 +15425,7 @@
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B559">
         <v>1</v>
@@ -15454,7 +15452,7 @@
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B560">
         <v>1</v>
@@ -15481,7 +15479,7 @@
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B561">
         <v>1</v>
@@ -15508,7 +15506,7 @@
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B562">
         <v>1</v>
@@ -15535,7 +15533,7 @@
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B563">
         <v>1</v>
@@ -15562,7 +15560,7 @@
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B564">
         <v>1</v>
@@ -15589,7 +15587,7 @@
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -15616,7 +15614,7 @@
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B566">
         <v>1</v>
@@ -15643,7 +15641,7 @@
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B567">
         <v>1</v>
@@ -15670,7 +15668,7 @@
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B568">
         <v>1</v>
@@ -15697,7 +15695,7 @@
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B569">
         <v>1</v>
@@ -15724,7 +15722,7 @@
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B570">
         <v>1</v>
@@ -15751,7 +15749,7 @@
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B571">
         <v>1</v>
@@ -15778,7 +15776,7 @@
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B572">
         <v>1</v>
@@ -15805,7 +15803,7 @@
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B573">
         <v>1</v>
@@ -15832,7 +15830,7 @@
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B574">
         <v>1</v>
@@ -15859,7 +15857,7 @@
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B575">
         <v>1</v>
@@ -15886,7 +15884,7 @@
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B576">
         <v>1</v>
@@ -15913,7 +15911,7 @@
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <f t="shared" si="8"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B577">
         <v>1</v>
@@ -15939,8 +15937,8 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
-        <f t="shared" ref="A578:A641" si="9">B578*C578+SUM(D578,E578,F578)/G578-H578</f>
-        <v>2</v>
+        <f t="shared" ref="A578:A641" si="9">B578*C578+SUM(D578,E578,F578)/G578-H578+526</f>
+        <v>528</v>
       </c>
       <c r="B578">
         <v>1</v>
@@ -15967,7 +15965,7 @@
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B579">
         <v>1</v>
@@ -15994,7 +15992,7 @@
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B580">
         <v>1</v>
@@ -16021,7 +16019,7 @@
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B581">
         <v>1</v>
@@ -16048,7 +16046,7 @@
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B582">
         <v>1</v>
@@ -16075,7 +16073,7 @@
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -16102,7 +16100,7 @@
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -16129,7 +16127,7 @@
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -16156,7 +16154,7 @@
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B586">
         <v>1</v>
@@ -16183,7 +16181,7 @@
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B587">
         <v>1</v>
@@ -16210,7 +16208,7 @@
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -16237,7 +16235,7 @@
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -16264,7 +16262,7 @@
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B590">
         <v>1</v>
@@ -16291,7 +16289,7 @@
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B591">
         <v>1</v>
@@ -16318,7 +16316,7 @@
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B592">
         <v>1</v>
@@ -16345,7 +16343,7 @@
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B593">
         <v>1</v>
@@ -16372,7 +16370,7 @@
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B594">
         <v>1</v>
@@ -16399,7 +16397,7 @@
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B595">
         <v>1</v>
@@ -16426,7 +16424,7 @@
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B596">
         <v>1</v>
@@ -16453,7 +16451,7 @@
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B597">
         <v>1</v>
@@ -16480,7 +16478,7 @@
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B598">
         <v>1</v>
@@ -16507,7 +16505,7 @@
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B599">
         <v>1</v>
@@ -16534,7 +16532,7 @@
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B600">
         <v>1</v>
@@ -16561,7 +16559,7 @@
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B601">
         <v>1</v>
@@ -16588,7 +16586,7 @@
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B602">
         <v>1</v>
@@ -16615,7 +16613,7 @@
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B603">
         <v>1</v>
@@ -16642,7 +16640,7 @@
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B604">
         <v>1</v>
@@ -16669,7 +16667,7 @@
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B605">
         <v>1</v>
@@ -16696,7 +16694,7 @@
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B606">
         <v>1</v>
@@ -16723,7 +16721,7 @@
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B607">
         <v>1</v>
@@ -16750,7 +16748,7 @@
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B608">
         <v>1</v>
@@ -16777,7 +16775,7 @@
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B609">
         <v>1</v>
@@ -16804,7 +16802,7 @@
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B610">
         <v>1</v>
@@ -16831,7 +16829,7 @@
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B611">
         <v>1</v>
@@ -16858,7 +16856,7 @@
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B612">
         <v>1</v>
@@ -16885,7 +16883,7 @@
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B613">
         <v>1</v>
@@ -16912,7 +16910,7 @@
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B614">
         <v>1</v>
@@ -16939,7 +16937,7 @@
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B615">
         <v>1</v>
@@ -16966,7 +16964,7 @@
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B616">
         <v>1</v>
@@ -16993,7 +16991,7 @@
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B617">
         <v>1</v>
@@ -17020,7 +17018,7 @@
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B618">
         <v>1</v>
@@ -17047,7 +17045,7 @@
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -17074,7 +17072,7 @@
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B620">
         <v>1</v>
@@ -17101,7 +17099,7 @@
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B621">
         <v>1</v>
@@ -17128,7 +17126,7 @@
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B622">
         <v>1</v>
@@ -17155,7 +17153,7 @@
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B623">
         <v>1</v>
@@ -17182,7 +17180,7 @@
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B624">
         <v>1</v>
@@ -17209,7 +17207,7 @@
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B625">
         <v>1</v>
@@ -17236,7 +17234,7 @@
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B626">
         <v>1</v>
@@ -17263,7 +17261,7 @@
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B627">
         <v>1</v>
@@ -17290,7 +17288,7 @@
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B628">
         <v>1</v>
@@ -17317,7 +17315,7 @@
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -17344,7 +17342,7 @@
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B630">
         <v>1</v>
@@ -17371,7 +17369,7 @@
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B631">
         <v>1</v>
@@ -17398,7 +17396,7 @@
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B632">
         <v>1</v>
@@ -17425,7 +17423,7 @@
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B633">
         <v>1</v>
@@ -17452,7 +17450,7 @@
     <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B634">
         <v>1</v>
@@ -17479,7 +17477,7 @@
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B635">
         <v>1</v>
@@ -17506,7 +17504,7 @@
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B636">
         <v>1</v>
@@ -17533,7 +17531,7 @@
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B637">
         <v>1</v>
@@ -17560,7 +17558,7 @@
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B638">
         <v>1</v>
@@ -17587,7 +17585,7 @@
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -17614,7 +17612,7 @@
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B640">
         <v>1</v>
@@ -17641,7 +17639,7 @@
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B641">
         <v>1</v>
@@ -17667,8 +17665,8 @@
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642">
-        <f t="shared" ref="A642:A705" si="10">B642*C642+SUM(D642,E642,F642)/G642-H642</f>
-        <v>2</v>
+        <f t="shared" ref="A642:A705" si="10">B642*C642+SUM(D642,E642,F642)/G642-H642+526</f>
+        <v>528</v>
       </c>
       <c r="B642">
         <v>1</v>
@@ -17695,7 +17693,7 @@
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B643">
         <v>1</v>
@@ -17722,7 +17720,7 @@
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B644">
         <v>1</v>
@@ -17749,7 +17747,7 @@
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B645">
         <v>1</v>
@@ -17776,7 +17774,7 @@
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B646">
         <v>1</v>
@@ -17803,7 +17801,7 @@
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B647">
         <v>1</v>
@@ -17830,7 +17828,7 @@
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B648">
         <v>1</v>
@@ -17857,7 +17855,7 @@
     <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B649">
         <v>1</v>
@@ -17884,7 +17882,7 @@
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B650">
         <v>1</v>
@@ -17911,7 +17909,7 @@
     <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B651">
         <v>1</v>
@@ -17938,7 +17936,7 @@
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B652">
         <v>1</v>
@@ -17965,7 +17963,7 @@
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B653">
         <v>1</v>
@@ -17992,7 +17990,7 @@
     <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B654">
         <v>1</v>
@@ -18019,7 +18017,7 @@
     <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B655">
         <v>1</v>
@@ -18046,7 +18044,7 @@
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B656">
         <v>1</v>
@@ -18073,7 +18071,7 @@
     <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B657">
         <v>1</v>
@@ -18100,7 +18098,7 @@
     <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B658">
         <v>1</v>
@@ -18127,7 +18125,7 @@
     <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -18154,7 +18152,7 @@
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B660">
         <v>1</v>
@@ -18181,7 +18179,7 @@
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B661">
         <v>1</v>
@@ -18208,7 +18206,7 @@
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B662">
         <v>1</v>
@@ -18235,7 +18233,7 @@
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B663">
         <v>1</v>
@@ -18262,7 +18260,7 @@
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B664">
         <v>1</v>
@@ -18289,7 +18287,7 @@
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B665">
         <v>1</v>
@@ -18316,7 +18314,7 @@
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B666">
         <v>1</v>
@@ -18343,7 +18341,7 @@
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B667">
         <v>1</v>
@@ -18370,7 +18368,7 @@
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B668">
         <v>1</v>
@@ -18397,7 +18395,7 @@
     <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B669">
         <v>1</v>
@@ -18424,7 +18422,7 @@
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B670">
         <v>1</v>
@@ -18451,7 +18449,7 @@
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B671">
         <v>1</v>
@@ -18478,7 +18476,7 @@
     <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B672">
         <v>1</v>
@@ -18505,7 +18503,7 @@
     <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B673">
         <v>1</v>
@@ -18532,7 +18530,7 @@
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B674">
         <v>1</v>
@@ -18559,7 +18557,7 @@
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B675">
         <v>1</v>
@@ -18586,7 +18584,7 @@
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B676">
         <v>1</v>
@@ -18613,7 +18611,7 @@
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B677">
         <v>1</v>
@@ -18640,7 +18638,7 @@
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B678">
         <v>1</v>
@@ -18667,7 +18665,7 @@
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B679">
         <v>1</v>
@@ -18694,7 +18692,7 @@
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B680">
         <v>1</v>
@@ -18721,7 +18719,7 @@
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B681">
         <v>1</v>
@@ -18748,7 +18746,7 @@
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B682">
         <v>1</v>
@@ -18775,7 +18773,7 @@
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B683">
         <v>1</v>
@@ -18802,7 +18800,7 @@
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -18829,7 +18827,7 @@
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B685">
         <v>1</v>
@@ -18856,7 +18854,7 @@
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B686">
         <v>1</v>
@@ -18883,7 +18881,7 @@
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B687">
         <v>1</v>
@@ -18910,7 +18908,7 @@
     <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B688">
         <v>1</v>
@@ -18937,7 +18935,7 @@
     <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B689">
         <v>1</v>
@@ -18964,7 +18962,7 @@
     <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -18991,7 +18989,7 @@
     <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B691">
         <v>1</v>
@@ -19018,7 +19016,7 @@
     <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B692">
         <v>1</v>
@@ -19045,7 +19043,7 @@
     <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B693">
         <v>1</v>
@@ -19072,7 +19070,7 @@
     <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B694">
         <v>1</v>
@@ -19099,7 +19097,7 @@
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B695">
         <v>1</v>
@@ -19126,7 +19124,7 @@
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B696">
         <v>1</v>
@@ -19153,7 +19151,7 @@
     <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -19180,7 +19178,7 @@
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B698">
         <v>1</v>
@@ -19207,7 +19205,7 @@
     <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B699">
         <v>1</v>
@@ -19234,7 +19232,7 @@
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B700">
         <v>1</v>
@@ -19261,7 +19259,7 @@
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B701">
         <v>1</v>
@@ -19288,7 +19286,7 @@
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B702">
         <v>1</v>
@@ -19315,7 +19313,7 @@
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B703">
         <v>1</v>
@@ -19342,7 +19340,7 @@
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B704">
         <v>1</v>
@@ -19369,7 +19367,7 @@
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <f t="shared" si="10"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B705">
         <v>1</v>
@@ -19395,8 +19393,8 @@
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
-        <f t="shared" ref="A706:A769" si="11">B706*C706+SUM(D706,E706,F706)/G706-H706</f>
-        <v>2</v>
+        <f t="shared" ref="A706:A769" si="11">B706*C706+SUM(D706,E706,F706)/G706-H706+526</f>
+        <v>528</v>
       </c>
       <c r="B706">
         <v>1</v>
@@ -19423,7 +19421,7 @@
     <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B707">
         <v>1</v>
@@ -19450,7 +19448,7 @@
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B708">
         <v>1</v>
@@ -19477,7 +19475,7 @@
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B709">
         <v>1</v>
@@ -19504,7 +19502,7 @@
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B710">
         <v>1</v>
@@ -19531,7 +19529,7 @@
     <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B711">
         <v>1</v>
@@ -19558,7 +19556,7 @@
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B712">
         <v>1</v>
@@ -19585,7 +19583,7 @@
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B713">
         <v>1</v>
@@ -19612,7 +19610,7 @@
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B714">
         <v>1</v>
@@ -19639,7 +19637,7 @@
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B715">
         <v>1</v>
@@ -19666,7 +19664,7 @@
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B716">
         <v>1</v>
@@ -19693,7 +19691,7 @@
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B717">
         <v>1</v>
@@ -19720,7 +19718,7 @@
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B718">
         <v>1</v>
@@ -19747,7 +19745,7 @@
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B719">
         <v>1</v>
@@ -19774,7 +19772,7 @@
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B720">
         <v>1</v>
@@ -19801,7 +19799,7 @@
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B721">
         <v>1</v>
@@ -19828,7 +19826,7 @@
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B722">
         <v>1</v>
@@ -19855,7 +19853,7 @@
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B723">
         <v>1</v>
@@ -19882,7 +19880,7 @@
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B724">
         <v>1</v>
@@ -19909,7 +19907,7 @@
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B725">
         <v>1</v>
@@ -19936,7 +19934,7 @@
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B726">
         <v>1</v>
@@ -19963,7 +19961,7 @@
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B727">
         <v>1</v>
@@ -19990,7 +19988,7 @@
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B728">
         <v>1</v>
@@ -20017,7 +20015,7 @@
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B729">
         <v>1</v>
@@ -20044,7 +20042,7 @@
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B730">
         <v>1</v>
@@ -20071,7 +20069,7 @@
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B731">
         <v>1</v>
@@ -20098,7 +20096,7 @@
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B732">
         <v>1</v>
@@ -20125,7 +20123,7 @@
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B733">
         <v>1</v>
@@ -20152,7 +20150,7 @@
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B734">
         <v>1</v>
@@ -20179,7 +20177,7 @@
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B735">
         <v>1</v>
@@ -20206,7 +20204,7 @@
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B736">
         <v>1</v>
@@ -20233,7 +20231,7 @@
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B737">
         <v>1</v>
@@ -20260,7 +20258,7 @@
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B738">
         <v>1</v>
@@ -20287,7 +20285,7 @@
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B739">
         <v>1</v>
@@ -20314,7 +20312,7 @@
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B740">
         <v>1</v>
@@ -20341,7 +20339,7 @@
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B741">
         <v>1</v>
@@ -20368,7 +20366,7 @@
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B742">
         <v>1</v>
@@ -20395,7 +20393,7 @@
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B743">
         <v>1</v>
@@ -20422,7 +20420,7 @@
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B744">
         <v>1</v>
@@ -20449,7 +20447,7 @@
     <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B745">
         <v>1</v>
@@ -20476,7 +20474,7 @@
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B746">
         <v>1</v>
@@ -20503,7 +20501,7 @@
     <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B747">
         <v>1</v>
@@ -20530,7 +20528,7 @@
     <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B748">
         <v>1</v>
@@ -20557,7 +20555,7 @@
     <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B749">
         <v>1</v>
@@ -20584,7 +20582,7 @@
     <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B750">
         <v>1</v>
@@ -20611,7 +20609,7 @@
     <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B751">
         <v>1</v>
@@ -20638,7 +20636,7 @@
     <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B752">
         <v>1</v>
@@ -20665,7 +20663,7 @@
     <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B753">
         <v>1</v>
@@ -20692,7 +20690,7 @@
     <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B754">
         <v>1</v>
@@ -20719,7 +20717,7 @@
     <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B755">
         <v>1</v>
@@ -20746,7 +20744,7 @@
     <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B756">
         <v>1</v>
@@ -20773,7 +20771,7 @@
     <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B757">
         <v>1</v>
@@ -20800,7 +20798,7 @@
     <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B758">
         <v>1</v>
@@ -20827,7 +20825,7 @@
     <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B759">
         <v>1</v>
@@ -20854,7 +20852,7 @@
     <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B760">
         <v>1</v>
@@ -20881,7 +20879,7 @@
     <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B761">
         <v>1</v>
@@ -20908,7 +20906,7 @@
     <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B762">
         <v>1</v>
@@ -20935,7 +20933,7 @@
     <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B763">
         <v>1</v>
@@ -20962,7 +20960,7 @@
     <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B764">
         <v>1</v>
@@ -20989,7 +20987,7 @@
     <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B765">
         <v>1</v>
@@ -21016,7 +21014,7 @@
     <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B766">
         <v>1</v>
@@ -21043,7 +21041,7 @@
     <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B767">
         <v>1</v>
@@ -21070,7 +21068,7 @@
     <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B768">
         <v>1</v>
@@ -21097,7 +21095,7 @@
     <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <f t="shared" si="11"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B769">
         <v>1</v>
@@ -21123,8 +21121,8 @@
     </row>
     <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
-        <f t="shared" ref="A770:A833" si="12">B770*C770+SUM(D770,E770,F770)/G770-H770</f>
-        <v>2</v>
+        <f t="shared" ref="A770:A833" si="12">B770*C770+SUM(D770,E770,F770)/G770-H770+526</f>
+        <v>528</v>
       </c>
       <c r="B770">
         <v>1</v>
@@ -21151,7 +21149,7 @@
     <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B771">
         <v>1</v>
@@ -21178,7 +21176,7 @@
     <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B772">
         <v>1</v>
@@ -21205,7 +21203,7 @@
     <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B773">
         <v>1</v>
@@ -21232,7 +21230,7 @@
     <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B774">
         <v>1</v>
@@ -21259,7 +21257,7 @@
     <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B775">
         <v>1</v>
@@ -21286,7 +21284,7 @@
     <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B776">
         <v>1</v>
@@ -21313,7 +21311,7 @@
     <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B777">
         <v>1</v>
@@ -21340,7 +21338,7 @@
     <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B778">
         <v>1</v>
@@ -21367,7 +21365,7 @@
     <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B779">
         <v>1</v>
@@ -21394,7 +21392,7 @@
     <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B780">
         <v>1</v>
@@ -21421,7 +21419,7 @@
     <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B781">
         <v>1</v>
@@ -21448,7 +21446,7 @@
     <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B782">
         <v>1</v>
@@ -21475,7 +21473,7 @@
     <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B783">
         <v>1</v>
@@ -21502,7 +21500,7 @@
     <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B784">
         <v>1</v>
@@ -21529,7 +21527,7 @@
     <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B785">
         <v>1</v>
@@ -21556,7 +21554,7 @@
     <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B786">
         <v>1</v>
@@ -21583,7 +21581,7 @@
     <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B787">
         <v>1</v>
@@ -21610,7 +21608,7 @@
     <row r="788" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A788">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B788">
         <v>1</v>
@@ -21637,7 +21635,7 @@
     <row r="789" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A789">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B789">
         <v>1</v>
@@ -21664,7 +21662,7 @@
     <row r="790" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A790">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B790">
         <v>1</v>
@@ -21691,7 +21689,7 @@
     <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B791">
         <v>1</v>
@@ -21718,7 +21716,7 @@
     <row r="792" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A792">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B792">
         <v>1</v>
@@ -21745,7 +21743,7 @@
     <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B793">
         <v>1</v>
@@ -21772,7 +21770,7 @@
     <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B794">
         <v>1</v>
@@ -21799,7 +21797,7 @@
     <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B795">
         <v>1</v>
@@ -21826,7 +21824,7 @@
     <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B796">
         <v>1</v>
@@ -21853,7 +21851,7 @@
     <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B797">
         <v>1</v>
@@ -21880,7 +21878,7 @@
     <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B798">
         <v>1</v>
@@ -21907,7 +21905,7 @@
     <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B799">
         <v>1</v>
@@ -21934,7 +21932,7 @@
     <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B800">
         <v>1</v>
@@ -21961,7 +21959,7 @@
     <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B801">
         <v>1</v>
@@ -21988,7 +21986,7 @@
     <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B802">
         <v>1</v>
@@ -22015,7 +22013,7 @@
     <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B803">
         <v>1</v>
@@ -22042,7 +22040,7 @@
     <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B804">
         <v>1</v>
@@ -22069,7 +22067,7 @@
     <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B805">
         <v>1</v>
@@ -22096,7 +22094,7 @@
     <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B806">
         <v>1</v>
@@ -22123,7 +22121,7 @@
     <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B807">
         <v>1</v>
@@ -22150,7 +22148,7 @@
     <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B808">
         <v>1</v>
@@ -22177,7 +22175,7 @@
     <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B809">
         <v>1</v>
@@ -22204,7 +22202,7 @@
     <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B810">
         <v>1</v>
@@ -22231,7 +22229,7 @@
     <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B811">
         <v>1</v>
@@ -22258,7 +22256,7 @@
     <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B812">
         <v>1</v>
@@ -22285,7 +22283,7 @@
     <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B813">
         <v>1</v>
@@ -22312,7 +22310,7 @@
     <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B814">
         <v>1</v>
@@ -22339,7 +22337,7 @@
     <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B815">
         <v>1</v>
@@ -22366,7 +22364,7 @@
     <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B816">
         <v>1</v>
@@ -22393,7 +22391,7 @@
     <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B817">
         <v>1</v>
@@ -22420,7 +22418,7 @@
     <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B818">
         <v>1</v>
@@ -22447,7 +22445,7 @@
     <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B819">
         <v>1</v>
@@ -22474,7 +22472,7 @@
     <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B820">
         <v>1</v>
@@ -22501,7 +22499,7 @@
     <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B821">
         <v>1</v>
@@ -22528,7 +22526,7 @@
     <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B822">
         <v>1</v>
@@ -22555,7 +22553,7 @@
     <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B823">
         <v>1</v>
@@ -22582,7 +22580,7 @@
     <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B824">
         <v>1</v>
@@ -22609,7 +22607,7 @@
     <row r="825" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A825">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B825">
         <v>1</v>
@@ -22636,7 +22634,7 @@
     <row r="826" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A826">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B826">
         <v>1</v>
@@ -22663,7 +22661,7 @@
     <row r="827" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A827">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B827">
         <v>1</v>
@@ -22690,7 +22688,7 @@
     <row r="828" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A828">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B828">
         <v>1</v>
@@ -22717,7 +22715,7 @@
     <row r="829" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A829">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B829">
         <v>1</v>
@@ -22744,7 +22742,7 @@
     <row r="830" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A830">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B830">
         <v>1</v>
@@ -22771,7 +22769,7 @@
     <row r="831" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A831">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B831">
         <v>1</v>
@@ -22798,7 +22796,7 @@
     <row r="832" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A832">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B832">
         <v>1</v>
@@ -22825,7 +22823,7 @@
     <row r="833" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A833">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B833">
         <v>1</v>
@@ -22851,8 +22849,8 @@
     </row>
     <row r="834" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A834">
-        <f t="shared" ref="A834:A897" si="13">B834*C834+SUM(D834,E834,F834)/G834-H834</f>
-        <v>2</v>
+        <f t="shared" ref="A834:A897" si="13">B834*C834+SUM(D834,E834,F834)/G834-H834+526</f>
+        <v>528</v>
       </c>
       <c r="B834">
         <v>1</v>
@@ -22879,7 +22877,7 @@
     <row r="835" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A835">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B835">
         <v>1</v>
@@ -22906,7 +22904,7 @@
     <row r="836" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A836">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B836">
         <v>1</v>
@@ -22933,7 +22931,7 @@
     <row r="837" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A837">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B837">
         <v>1</v>
@@ -22960,7 +22958,7 @@
     <row r="838" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A838">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B838">
         <v>1</v>
@@ -22987,7 +22985,7 @@
     <row r="839" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A839">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B839">
         <v>1</v>
@@ -23014,7 +23012,7 @@
     <row r="840" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A840">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B840">
         <v>1</v>
@@ -23041,7 +23039,7 @@
     <row r="841" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A841">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B841">
         <v>1</v>
@@ -23068,7 +23066,7 @@
     <row r="842" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A842">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B842">
         <v>1</v>
@@ -23095,7 +23093,7 @@
     <row r="843" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A843">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B843">
         <v>1</v>
@@ -23122,7 +23120,7 @@
     <row r="844" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A844">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B844">
         <v>1</v>
@@ -23149,7 +23147,7 @@
     <row r="845" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A845">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B845">
         <v>1</v>
@@ -23176,7 +23174,7 @@
     <row r="846" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A846">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B846">
         <v>1</v>
@@ -23203,7 +23201,7 @@
     <row r="847" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A847">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B847">
         <v>1</v>
@@ -23230,7 +23228,7 @@
     <row r="848" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A848">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B848">
         <v>1</v>
@@ -23257,7 +23255,7 @@
     <row r="849" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A849">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B849">
         <v>1</v>
@@ -23284,7 +23282,7 @@
     <row r="850" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A850">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B850">
         <v>1</v>
@@ -23311,7 +23309,7 @@
     <row r="851" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A851">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B851">
         <v>1</v>
@@ -23338,7 +23336,7 @@
     <row r="852" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A852">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B852">
         <v>1</v>
@@ -23365,7 +23363,7 @@
     <row r="853" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A853">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B853">
         <v>1</v>
@@ -23392,7 +23390,7 @@
     <row r="854" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A854">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B854">
         <v>1</v>
@@ -23419,7 +23417,7 @@
     <row r="855" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A855">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B855">
         <v>1</v>
@@ -23446,7 +23444,7 @@
     <row r="856" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A856">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B856">
         <v>1</v>
@@ -23473,7 +23471,7 @@
     <row r="857" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A857">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B857">
         <v>1</v>
@@ -23500,7 +23498,7 @@
     <row r="858" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A858">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B858">
         <v>1</v>
@@ -23527,7 +23525,7 @@
     <row r="859" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A859">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B859">
         <v>1</v>
@@ -23554,7 +23552,7 @@
     <row r="860" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A860">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B860">
         <v>1</v>
@@ -23581,7 +23579,7 @@
     <row r="861" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A861">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B861">
         <v>1</v>
@@ -23608,7 +23606,7 @@
     <row r="862" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A862">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B862">
         <v>1</v>
@@ -23635,7 +23633,7 @@
     <row r="863" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A863">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B863">
         <v>1</v>
@@ -23662,7 +23660,7 @@
     <row r="864" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A864">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B864">
         <v>1</v>
@@ -23689,7 +23687,7 @@
     <row r="865" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A865">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B865">
         <v>1</v>
@@ -23716,7 +23714,7 @@
     <row r="866" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A866">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B866">
         <v>1</v>
@@ -23743,7 +23741,7 @@
     <row r="867" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A867">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B867">
         <v>1</v>
@@ -23770,7 +23768,7 @@
     <row r="868" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A868">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B868">
         <v>1</v>
@@ -23797,7 +23795,7 @@
     <row r="869" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A869">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B869">
         <v>1</v>
@@ -23824,7 +23822,7 @@
     <row r="870" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A870">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B870">
         <v>1</v>
@@ -23851,7 +23849,7 @@
     <row r="871" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A871">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B871">
         <v>1</v>
@@ -23878,7 +23876,7 @@
     <row r="872" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A872">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B872">
         <v>1</v>
@@ -23905,7 +23903,7 @@
     <row r="873" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A873">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B873">
         <v>1</v>
@@ -23932,7 +23930,7 @@
     <row r="874" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A874">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B874">
         <v>1</v>
@@ -23959,7 +23957,7 @@
     <row r="875" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A875">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B875">
         <v>1</v>
@@ -23986,7 +23984,7 @@
     <row r="876" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A876">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B876">
         <v>1</v>
@@ -24013,7 +24011,7 @@
     <row r="877" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A877">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B877">
         <v>1</v>
@@ -24040,7 +24038,7 @@
     <row r="878" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A878">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B878">
         <v>1</v>
@@ -24067,7 +24065,7 @@
     <row r="879" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A879">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B879">
         <v>1</v>
@@ -24094,7 +24092,7 @@
     <row r="880" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A880">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B880">
         <v>1</v>
@@ -24121,7 +24119,7 @@
     <row r="881" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A881">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B881">
         <v>1</v>
@@ -24148,7 +24146,7 @@
     <row r="882" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A882">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B882">
         <v>1</v>
@@ -24175,7 +24173,7 @@
     <row r="883" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A883">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B883">
         <v>1</v>
@@ -24202,7 +24200,7 @@
     <row r="884" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A884">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B884">
         <v>1</v>
@@ -24229,7 +24227,7 @@
     <row r="885" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A885">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B885">
         <v>1</v>
@@ -24256,7 +24254,7 @@
     <row r="886" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A886">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B886">
         <v>1</v>
@@ -24283,7 +24281,7 @@
     <row r="887" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A887">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B887">
         <v>1</v>
@@ -24310,7 +24308,7 @@
     <row r="888" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A888">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B888">
         <v>1</v>
@@ -24337,7 +24335,7 @@
     <row r="889" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A889">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B889">
         <v>1</v>
@@ -24364,7 +24362,7 @@
     <row r="890" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A890">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B890">
         <v>1</v>
@@ -24391,7 +24389,7 @@
     <row r="891" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A891">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B891">
         <v>1</v>
@@ -24418,7 +24416,7 @@
     <row r="892" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A892">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B892">
         <v>1</v>
@@ -24445,7 +24443,7 @@
     <row r="893" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A893">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B893">
         <v>1</v>
@@ -24472,7 +24470,7 @@
     <row r="894" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A894">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B894">
         <v>1</v>
@@ -24499,7 +24497,7 @@
     <row r="895" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A895">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B895">
         <v>1</v>
@@ -24526,7 +24524,7 @@
     <row r="896" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A896">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B896">
         <v>1</v>
@@ -24553,7 +24551,7 @@
     <row r="897" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A897">
         <f t="shared" si="13"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B897">
         <v>1</v>
@@ -24579,8 +24577,8 @@
     </row>
     <row r="898" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A898">
-        <f t="shared" ref="A898:A961" si="14">B898*C898+SUM(D898,E898,F898)/G898-H898</f>
-        <v>2</v>
+        <f t="shared" ref="A898:A961" si="14">B898*C898+SUM(D898,E898,F898)/G898-H898+526</f>
+        <v>528</v>
       </c>
       <c r="B898">
         <v>1</v>
@@ -24607,7 +24605,7 @@
     <row r="899" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A899">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B899">
         <v>1</v>
@@ -24634,7 +24632,7 @@
     <row r="900" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A900">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B900">
         <v>1</v>
@@ -24661,7 +24659,7 @@
     <row r="901" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A901">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B901">
         <v>1</v>
@@ -24688,7 +24686,7 @@
     <row r="902" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A902">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B902">
         <v>1</v>
@@ -24715,7 +24713,7 @@
     <row r="903" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A903">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B903">
         <v>1</v>
@@ -24742,7 +24740,7 @@
     <row r="904" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A904">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B904">
         <v>1</v>
@@ -24769,7 +24767,7 @@
     <row r="905" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A905">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B905">
         <v>1</v>
@@ -24796,7 +24794,7 @@
     <row r="906" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A906">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B906">
         <v>1</v>
@@ -24823,7 +24821,7 @@
     <row r="907" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A907">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B907">
         <v>1</v>
@@ -24850,7 +24848,7 @@
     <row r="908" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A908">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B908">
         <v>1</v>
@@ -24877,7 +24875,7 @@
     <row r="909" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A909">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B909">
         <v>1</v>
@@ -24904,7 +24902,7 @@
     <row r="910" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A910">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B910">
         <v>1</v>
@@ -24931,7 +24929,7 @@
     <row r="911" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A911">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B911">
         <v>1</v>
@@ -24958,7 +24956,7 @@
     <row r="912" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A912">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B912">
         <v>1</v>
@@ -24985,7 +24983,7 @@
     <row r="913" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A913">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B913">
         <v>1</v>
@@ -25012,7 +25010,7 @@
     <row r="914" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A914">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B914">
         <v>1</v>
@@ -25039,7 +25037,7 @@
     <row r="915" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A915">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B915">
         <v>1</v>
@@ -25066,7 +25064,7 @@
     <row r="916" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A916">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B916">
         <v>1</v>
@@ -25093,7 +25091,7 @@
     <row r="917" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A917">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B917">
         <v>1</v>
@@ -25120,7 +25118,7 @@
     <row r="918" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A918">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B918">
         <v>1</v>
@@ -25147,7 +25145,7 @@
     <row r="919" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A919">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B919">
         <v>1</v>
@@ -25174,7 +25172,7 @@
     <row r="920" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A920">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B920">
         <v>1</v>
@@ -25201,7 +25199,7 @@
     <row r="921" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A921">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B921">
         <v>1</v>
@@ -25228,7 +25226,7 @@
     <row r="922" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A922">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B922">
         <v>1</v>
@@ -25255,7 +25253,7 @@
     <row r="923" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A923">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B923">
         <v>1</v>
@@ -25282,7 +25280,7 @@
     <row r="924" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A924">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B924">
         <v>1</v>
@@ -25309,7 +25307,7 @@
     <row r="925" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A925">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B925">
         <v>1</v>
@@ -25336,7 +25334,7 @@
     <row r="926" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A926">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B926">
         <v>1</v>
@@ -25363,7 +25361,7 @@
     <row r="927" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A927">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B927">
         <v>1</v>
@@ -25390,7 +25388,7 @@
     <row r="928" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A928">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B928">
         <v>1</v>
@@ -25417,7 +25415,7 @@
     <row r="929" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A929">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B929">
         <v>1</v>
@@ -25444,7 +25442,7 @@
     <row r="930" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A930">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B930">
         <v>1</v>
@@ -25471,7 +25469,7 @@
     <row r="931" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A931">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B931">
         <v>1</v>
@@ -25498,7 +25496,7 @@
     <row r="932" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A932">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B932">
         <v>1</v>
@@ -25525,7 +25523,7 @@
     <row r="933" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A933">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B933">
         <v>1</v>
@@ -25552,7 +25550,7 @@
     <row r="934" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A934">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B934">
         <v>1</v>
@@ -25579,7 +25577,7 @@
     <row r="935" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A935">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B935">
         <v>1</v>
@@ -25606,7 +25604,7 @@
     <row r="936" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A936">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B936">
         <v>1</v>
@@ -25633,7 +25631,7 @@
     <row r="937" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A937">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B937">
         <v>1</v>
@@ -25660,7 +25658,7 @@
     <row r="938" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A938">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B938">
         <v>1</v>
@@ -25687,7 +25685,7 @@
     <row r="939" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A939">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B939">
         <v>1</v>
@@ -25714,7 +25712,7 @@
     <row r="940" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A940">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B940">
         <v>1</v>
@@ -25741,7 +25739,7 @@
     <row r="941" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A941">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B941">
         <v>1</v>
@@ -25768,7 +25766,7 @@
     <row r="942" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A942">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B942">
         <v>1</v>
@@ -25795,7 +25793,7 @@
     <row r="943" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A943">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B943">
         <v>1</v>
@@ -25822,7 +25820,7 @@
     <row r="944" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A944">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B944">
         <v>1</v>
@@ -25849,7 +25847,7 @@
     <row r="945" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A945">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B945">
         <v>1</v>
@@ -25876,7 +25874,7 @@
     <row r="946" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A946">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B946">
         <v>1</v>
@@ -25903,7 +25901,7 @@
     <row r="947" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A947">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B947">
         <v>1</v>
@@ -25930,7 +25928,7 @@
     <row r="948" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A948">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B948">
         <v>1</v>
@@ -25957,7 +25955,7 @@
     <row r="949" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A949">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B949">
         <v>1</v>
@@ -25984,7 +25982,7 @@
     <row r="950" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A950">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B950">
         <v>1</v>
@@ -26011,7 +26009,7 @@
     <row r="951" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A951">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B951">
         <v>1</v>
@@ -26038,7 +26036,7 @@
     <row r="952" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A952">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B952">
         <v>1</v>
@@ -26065,7 +26063,7 @@
     <row r="953" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A953">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B953">
         <v>1</v>
@@ -26092,7 +26090,7 @@
     <row r="954" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A954">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B954">
         <v>1</v>
@@ -26119,7 +26117,7 @@
     <row r="955" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A955">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B955">
         <v>1</v>
@@ -26146,7 +26144,7 @@
     <row r="956" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A956">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B956">
         <v>1</v>
@@ -26173,7 +26171,7 @@
     <row r="957" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A957">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B957">
         <v>1</v>
@@ -26200,7 +26198,7 @@
     <row r="958" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A958">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B958">
         <v>1</v>
@@ -26227,7 +26225,7 @@
     <row r="959" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A959">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B959">
         <v>1</v>
@@ -26254,7 +26252,7 @@
     <row r="960" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A960">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B960">
         <v>1</v>
@@ -26281,7 +26279,7 @@
     <row r="961" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A961">
         <f t="shared" si="14"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B961">
         <v>1</v>
@@ -26307,8 +26305,8 @@
     </row>
     <row r="962" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A962">
-        <f t="shared" ref="A962:A1000" si="15">B962*C962+SUM(D962,E962,F962)/G962-H962</f>
-        <v>2</v>
+        <f t="shared" ref="A962:A1000" si="15">B962*C962+SUM(D962,E962,F962)/G962-H962+526</f>
+        <v>528</v>
       </c>
       <c r="B962">
         <v>1</v>
@@ -26335,7 +26333,7 @@
     <row r="963" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A963">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B963">
         <v>1</v>
@@ -26362,7 +26360,7 @@
     <row r="964" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A964">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B964">
         <v>1</v>
@@ -26389,7 +26387,7 @@
     <row r="965" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A965">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B965">
         <v>1</v>
@@ -26416,7 +26414,7 @@
     <row r="966" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A966">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B966">
         <v>1</v>
@@ -26443,7 +26441,7 @@
     <row r="967" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A967">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B967">
         <v>1</v>
@@ -26470,7 +26468,7 @@
     <row r="968" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A968">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B968">
         <v>1</v>
@@ -26497,7 +26495,7 @@
     <row r="969" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A969">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B969">
         <v>1</v>
@@ -26524,7 +26522,7 @@
     <row r="970" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A970">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B970">
         <v>1</v>
@@ -26551,7 +26549,7 @@
     <row r="971" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A971">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B971">
         <v>1</v>
@@ -26578,7 +26576,7 @@
     <row r="972" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A972">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B972">
         <v>1</v>
@@ -26605,7 +26603,7 @@
     <row r="973" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A973">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B973">
         <v>1</v>
@@ -26632,7 +26630,7 @@
     <row r="974" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A974">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B974">
         <v>1</v>
@@ -26659,7 +26657,7 @@
     <row r="975" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A975">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B975">
         <v>1</v>
@@ -26686,7 +26684,7 @@
     <row r="976" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A976">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B976">
         <v>1</v>
@@ -26713,7 +26711,7 @@
     <row r="977" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A977">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B977">
         <v>1</v>
@@ -26740,7 +26738,7 @@
     <row r="978" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A978">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B978">
         <v>1</v>
@@ -26767,7 +26765,7 @@
     <row r="979" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A979">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B979">
         <v>1</v>
@@ -26794,7 +26792,7 @@
     <row r="980" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A980">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B980">
         <v>1</v>
@@ -26821,7 +26819,7 @@
     <row r="981" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A981">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B981">
         <v>1</v>
@@ -26848,7 +26846,7 @@
     <row r="982" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A982">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B982">
         <v>1</v>
@@ -26875,7 +26873,7 @@
     <row r="983" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A983">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B983">
         <v>1</v>
@@ -26902,7 +26900,7 @@
     <row r="984" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A984">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B984">
         <v>1</v>
@@ -26929,7 +26927,7 @@
     <row r="985" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A985">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B985">
         <v>1</v>
@@ -26956,7 +26954,7 @@
     <row r="986" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A986">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B986">
         <v>1</v>
@@ -26983,7 +26981,7 @@
     <row r="987" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A987">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B987">
         <v>1</v>
@@ -27010,7 +27008,7 @@
     <row r="988" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A988">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B988">
         <v>1</v>
@@ -27037,7 +27035,7 @@
     <row r="989" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A989">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B989">
         <v>1</v>
@@ -27064,7 +27062,7 @@
     <row r="990" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A990">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B990">
         <v>1</v>
@@ -27091,7 +27089,7 @@
     <row r="991" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A991">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B991">
         <v>1</v>
@@ -27118,7 +27116,7 @@
     <row r="992" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A992">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B992">
         <v>1</v>
@@ -27145,7 +27143,7 @@
     <row r="993" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A993">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B993">
         <v>1</v>
@@ -27172,7 +27170,7 @@
     <row r="994" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A994">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B994">
         <v>1</v>
@@ -27199,7 +27197,7 @@
     <row r="995" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A995">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B995">
         <v>1</v>
@@ -27226,7 +27224,7 @@
     <row r="996" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A996">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B996">
         <v>1</v>
@@ -27253,7 +27251,7 @@
     <row r="997" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A997">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B997">
         <v>1</v>
@@ -27280,7 +27278,7 @@
     <row r="998" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A998">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B998">
         <v>1</v>
@@ -27307,7 +27305,7 @@
     <row r="999" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A999">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B999">
         <v>1</v>
@@ -27334,7 +27332,7 @@
     <row r="1000" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1000">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>528</v>
       </c>
       <c r="B1000">
         <v>1</v>
